--- a/ExcelVoice/IM_Excel/ETP.xlsx
+++ b/ExcelVoice/IM_Excel/ETP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9757b855731a8f/Desktop/IM_EXCEL_Projects/ExcelVoice/IM_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="13_ncr:1_{7CC2716A-D035-4DD3-A189-8164E5F19EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06A5CE29-E1A7-4F5A-95A9-7CAA887914A3}"/>
+  <xr:revisionPtr revIDLastSave="2673" documentId="13_ncr:1_{7CC2716A-D035-4DD3-A189-8164E5F19EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FB08B9-E970-4679-A20D-ABEFFEFB5C9E}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="350">
   <si>
     <t>Número mecanográfico</t>
   </si>
@@ -1083,15 +1083,6 @@
   </si>
   <si>
     <t>Média</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
-    <t>Aprovado</t>
-  </si>
-  <si>
-    <t>Reprovado</t>
   </si>
 </sst>
 </file>
@@ -1115,24 +1106,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1168,14 +1147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,6 +1168,200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Médias da Turma — T1, T2 e Final</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Média da Turma</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Teste 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Teste 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Média Final</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>12.654088050314465</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>13.012578616352201</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.833333333333334</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33C9-436D-B779-8A0A31544084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1720451040"/>
+        <c:axId val="1720468320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1720451040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1720468320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720468320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1720451040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>86359</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87671D3C-243A-D0B0-1D2B-908F9D3BDE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,15 +1655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P160"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="38" workbookViewId="0">
-      <selection activeCell="AG186" sqref="AG186"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1538,11 +1709,8 @@
       <c r="O1" t="s">
         <v>349</v>
       </c>
-      <c r="P1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>107447</v>
       </c>
@@ -1589,11 +1757,8 @@
         <f>AVERAGE(H2,N2)</f>
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>94716</v>
       </c>
@@ -1640,11 +1805,8 @@
         <f>AVERAGE(H3,N3)</f>
         <v>9.5</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>107135</v>
       </c>
@@ -1691,56 +1853,50 @@
         <f>AVERAGE(H4,N4)</f>
         <v>10.5</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>107390</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>8314</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>11</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>13</v>
       </c>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
         <v>19</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <f>AVERAGE(H5,N5)</f>
         <v>15</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>108121</v>
       </c>
@@ -1787,11 +1943,8 @@
         <f>AVERAGE(H6,N6)</f>
         <v>11</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>107242</v>
       </c>
@@ -1838,11 +1991,8 @@
         <f>AVERAGE(H7,N7)</f>
         <v>14</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>108589</v>
       </c>
@@ -1889,11 +2039,8 @@
         <f>AVERAGE(H8,N8)</f>
         <v>10.5</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108522</v>
       </c>
@@ -1940,62 +2087,56 @@
         <f>AVERAGE(H9,N9)</f>
         <v>15.5</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>107218</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>8314</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
         <v>6</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>7</v>
       </c>
-      <c r="M10" s="4">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
         <v>19</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <f>AVERAGE(H10,N10)</f>
         <v>14.5</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>108189</v>
       </c>
@@ -2042,11 +2183,8 @@
         <f>AVERAGE(H11,N11)</f>
         <v>12.5</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>107372</v>
       </c>
@@ -2093,11 +2231,8 @@
         <f>AVERAGE(H12,N12)</f>
         <v>15.5</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>108957</v>
       </c>
@@ -2144,11 +2279,8 @@
         <f>AVERAGE(H13,N13)</f>
         <v>16</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>107440</v>
       </c>
@@ -2195,11 +2327,8 @@
         <f>AVERAGE(H14,N14)</f>
         <v>15.5</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>108188</v>
       </c>
@@ -2246,11 +2375,8 @@
         <f>AVERAGE(H15,N15)</f>
         <v>11.5</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>108855</v>
       </c>
@@ -2297,11 +2423,8 @@
         <f>AVERAGE(H16,N16)</f>
         <v>16.5</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>108672</v>
       </c>
@@ -2348,11 +2471,8 @@
         <f>AVERAGE(H17,N17)</f>
         <v>10.5</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>108138</v>
       </c>
@@ -2399,11 +2519,8 @@
         <f>AVERAGE(H18,N18)</f>
         <v>15</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>107236</v>
       </c>
@@ -2450,11 +2567,8 @@
         <f>AVERAGE(H19,N19)</f>
         <v>11</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>104204</v>
       </c>
@@ -2501,11 +2615,8 @@
         <f>AVERAGE(H20,N20)</f>
         <v>17</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>107428</v>
       </c>
@@ -2552,62 +2663,56 @@
         <f>AVERAGE(H21,N21)</f>
         <v>16</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>107259</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>8314</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="2">
         <v>9</v>
       </c>
-      <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
         <v>5</v>
       </c>
-      <c r="L22" s="4">
-        <v>3</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="L22" s="2">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
         <v>13</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <f>AVERAGE(H22,N22)</f>
         <v>11</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100088</v>
       </c>
@@ -2654,11 +2759,8 @@
         <f>AVERAGE(H23,N23)</f>
         <v>12.5</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>108506</v>
       </c>
@@ -2705,11 +2807,8 @@
         <f>AVERAGE(H24,N24)</f>
         <v>13.5</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>110376</v>
       </c>
@@ -2756,11 +2855,8 @@
         <f>AVERAGE(H25,N25)</f>
         <v>12</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>109038</v>
       </c>
@@ -2807,11 +2903,8 @@
         <f>AVERAGE(H26,N26)</f>
         <v>16</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>108727</v>
       </c>
@@ -2858,11 +2951,8 @@
         <f>AVERAGE(H27,N27)</f>
         <v>9.5</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>93973</v>
       </c>
@@ -2909,113 +2999,104 @@
         <f>AVERAGE(H28,N28)</f>
         <v>11</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>108381</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>8314</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="2">
         <v>8</v>
       </c>
-      <c r="I29" s="4">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4">
-        <v>2</v>
-      </c>
-      <c r="K29" s="4">
-        <v>2</v>
-      </c>
-      <c r="L29" s="4">
-        <v>2</v>
-      </c>
-      <c r="M29" s="4">
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
         <v>9</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="2">
         <v>18</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="2">
         <f>AVERAGE(H29,N29)</f>
         <v>13</v>
       </c>
-      <c r="P29" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>108694</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>8314</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="2">
         <v>11</v>
       </c>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
         <v>11</v>
       </c>
-      <c r="M30" s="4">
-        <v>2</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
         <v>18</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="2">
         <f>AVERAGE(H30,N30)</f>
         <v>14.5</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>108421</v>
       </c>
@@ -3062,62 +3143,56 @@
         <f>AVERAGE(H31,N31)</f>
         <v>14.5</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>108366</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>8314</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" s="2">
         <v>8</v>
       </c>
-      <c r="I32" s="4">
-        <v>2</v>
-      </c>
-      <c r="J32" s="4">
-        <v>3</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
         <v>6</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="2">
         <v>13</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="2">
         <f>AVERAGE(H32,N32)</f>
         <v>10.5</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>109462</v>
       </c>
@@ -3164,11 +3239,8 @@
         <f>AVERAGE(H33,N33)</f>
         <v>11</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>93742</v>
       </c>
@@ -3215,11 +3287,8 @@
         <f>AVERAGE(H34,N34)</f>
         <v>12.5</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>109000</v>
       </c>
@@ -3266,113 +3335,104 @@
         <f>AVERAGE(H35,N35)</f>
         <v>15.5</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>107769</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>8314</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H36" s="2">
         <v>9</v>
       </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4">
-        <v>2</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
+      <c r="L36" s="2">
         <v>7</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="2">
         <v>4</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="2">
         <v>15</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="2">
         <f>AVERAGE(H36,N36)</f>
         <v>12</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    </row>
+    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>101446</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>8307</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H37" s="2">
         <v>11</v>
       </c>
-      <c r="I37" s="4">
-        <v>3</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I37" s="2">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2">
         <v>9</v>
       </c>
-      <c r="K37" s="4">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1</v>
-      </c>
-      <c r="M37" s="4">
-        <v>2</v>
-      </c>
-      <c r="N37" s="4">
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2</v>
+      </c>
+      <c r="N37" s="2">
         <v>16</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="2">
         <f>AVERAGE(H37,N37)</f>
         <v>13.5</v>
       </c>
-      <c r="P37" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>109061</v>
       </c>
@@ -3419,11 +3479,8 @@
         <f>AVERAGE(H38,N38)</f>
         <v>10</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>107487</v>
       </c>
@@ -3470,11 +3527,8 @@
         <f>AVERAGE(H39,N39)</f>
         <v>13</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>107436</v>
       </c>
@@ -3521,113 +3575,104 @@
         <f>AVERAGE(H40,N40)</f>
         <v>14</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>107529</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>8314</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H41" s="2">
         <v>8</v>
       </c>
-      <c r="I41" s="4">
-        <v>3</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4">
-        <v>3</v>
-      </c>
-      <c r="M41" s="4">
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2">
         <v>10</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="2">
         <v>18</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="2">
         <f>AVERAGE(H41,N41)</f>
         <v>13</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>107879</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>8314</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="2">
         <v>9</v>
       </c>
-      <c r="I42" s="4">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4">
-        <v>2</v>
-      </c>
-      <c r="L42" s="4">
-        <v>2</v>
-      </c>
-      <c r="M42" s="4">
+      <c r="I42" s="2">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>2</v>
+      </c>
+      <c r="M42" s="2">
         <v>5</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="2">
         <v>13</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="2">
         <f>AVERAGE(H42,N42)</f>
         <v>11</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>107788</v>
       </c>
@@ -3674,11 +3719,8 @@
         <f>AVERAGE(H43,N43)</f>
         <v>16.5</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>108449</v>
       </c>
@@ -3725,62 +3767,56 @@
         <f>AVERAGE(H44,N44)</f>
         <v>12.5</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>108651</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>8314</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" s="2">
         <v>8</v>
       </c>
-      <c r="I45" s="4">
-        <v>3</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="4">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>3</v>
-      </c>
-      <c r="M45" s="4">
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
         <v>5</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="2">
         <v>13</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="2">
         <f>AVERAGE(H45,N45)</f>
         <v>10.5</v>
       </c>
-      <c r="P45" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>107560</v>
       </c>
@@ -3824,14 +3860,11 @@
         <v>19</v>
       </c>
       <c r="O46">
-        <f t="shared" ref="O34:O65" si="0">AVERAGE(H46,N46)</f>
+        <f>AVERAGE(H46,N46)</f>
         <v>18.5</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>107977</v>
       </c>
@@ -3875,14 +3908,11 @@
         <v>15</v>
       </c>
       <c r="O47">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H47,N47)</f>
         <v>13.5</v>
       </c>
-      <c r="P47" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>107369</v>
       </c>
@@ -3926,14 +3956,11 @@
         <v>15</v>
       </c>
       <c r="O48">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H48,N48)</f>
         <v>15</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>108171</v>
       </c>
@@ -3977,14 +4004,11 @@
         <v>10</v>
       </c>
       <c r="O49">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H49,N49)</f>
         <v>10.5</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>107920</v>
       </c>
@@ -4028,14 +4052,11 @@
         <v>9</v>
       </c>
       <c r="O50">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H50,N50)</f>
         <v>9.5</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>109342</v>
       </c>
@@ -4079,167 +4100,155 @@
         <v>10</v>
       </c>
       <c r="O51">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H51,N51)</f>
         <v>12.5</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+    </row>
+    <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>108430</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>8314</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G52" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H52" s="2">
         <v>10</v>
       </c>
-      <c r="I52" s="4">
-        <v>3</v>
-      </c>
-      <c r="J52" s="4">
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2">
         <v>9</v>
       </c>
-      <c r="K52" s="4">
-        <v>2</v>
-      </c>
-      <c r="L52" s="4">
-        <v>2</v>
-      </c>
-      <c r="M52" s="4">
-        <v>1</v>
-      </c>
-      <c r="N52" s="4">
+      <c r="K52" s="2">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2">
+        <v>2</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
         <v>17</v>
       </c>
-      <c r="O52" s="4">
-        <f t="shared" si="0"/>
+      <c r="O52" s="2">
+        <f>AVERAGE(H52,N52)</f>
         <v>13.5</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    </row>
+    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>108816</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>8314</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="G53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H53" s="2">
         <v>8</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="2">
         <v>5</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="2">
         <v>4</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="2">
         <v>4</v>
       </c>
-      <c r="L53" s="4">
-        <v>1</v>
-      </c>
-      <c r="M53" s="4">
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
         <v>5</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="2">
         <v>19</v>
       </c>
-      <c r="O53" s="4">
-        <f t="shared" si="0"/>
+      <c r="O53" s="2">
+        <f>AVERAGE(H53,N53)</f>
         <v>13.5</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+    </row>
+    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>108842</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>8314</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="G54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H54" s="2">
         <v>8</v>
       </c>
-      <c r="I54" s="4">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4">
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
         <v>6</v>
       </c>
-      <c r="K54" s="4">
-        <v>1</v>
-      </c>
-      <c r="L54" s="4">
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
         <v>4</v>
       </c>
-      <c r="M54" s="4">
-        <v>1</v>
-      </c>
-      <c r="N54" s="4">
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2">
         <v>13</v>
       </c>
-      <c r="O54" s="4">
-        <f t="shared" si="0"/>
+      <c r="O54" s="2">
+        <f>AVERAGE(H54,N54)</f>
         <v>10.5</v>
       </c>
-      <c r="P54" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>103797</v>
       </c>
@@ -4283,14 +4292,11 @@
         <v>10</v>
       </c>
       <c r="O55">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H55,N55)</f>
         <v>11</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>107777</v>
       </c>
@@ -4334,14 +4340,11 @@
         <v>13</v>
       </c>
       <c r="O56">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H56,N56)</f>
         <v>13</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>107717</v>
       </c>
@@ -4385,14 +4388,11 @@
         <v>12</v>
       </c>
       <c r="O57">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H57,N57)</f>
         <v>12.5</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>103443</v>
       </c>
@@ -4436,14 +4436,11 @@
         <v>14</v>
       </c>
       <c r="O58">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H58,N58)</f>
         <v>14</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>108950</v>
       </c>
@@ -4487,14 +4484,11 @@
         <v>18</v>
       </c>
       <c r="O59">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H59,N59)</f>
         <v>17</v>
       </c>
-      <c r="P59" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>108079</v>
       </c>
@@ -4538,65 +4532,59 @@
         <v>7</v>
       </c>
       <c r="O60">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H60,N60)</f>
         <v>9.5</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+    </row>
+    <row r="61" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>109163</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>8314</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G61" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H61" s="2">
         <v>9</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="2">
         <v>4</v>
       </c>
-      <c r="J61" s="4">
-        <v>2</v>
-      </c>
-      <c r="K61" s="4">
+      <c r="J61" s="2">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2">
         <v>4</v>
       </c>
-      <c r="L61" s="4">
-        <v>1</v>
-      </c>
-      <c r="M61" s="4">
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
         <v>7</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="2">
         <v>18</v>
       </c>
-      <c r="O61" s="4">
-        <f t="shared" si="0"/>
+      <c r="O61" s="2">
+        <f>AVERAGE(H61,N61)</f>
         <v>13.5</v>
       </c>
-      <c r="P61" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>110347</v>
       </c>
@@ -4640,14 +4628,11 @@
         <v>15</v>
       </c>
       <c r="O62">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H62,N62)</f>
         <v>13.5</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>109373</v>
       </c>
@@ -4691,14 +4676,11 @@
         <v>11</v>
       </c>
       <c r="O63">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H63,N63)</f>
         <v>14</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>103203</v>
       </c>
@@ -4742,14 +4724,11 @@
         <v>17</v>
       </c>
       <c r="O64">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H64,N64)</f>
         <v>17.5</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>107335</v>
       </c>
@@ -4793,14 +4772,11 @@
         <v>13</v>
       </c>
       <c r="O65">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H65,N65)</f>
         <v>15.5</v>
       </c>
-      <c r="P65" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>93345</v>
       </c>
@@ -4844,14 +4820,11 @@
         <v>18</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O97" si="1">AVERAGE(H66,N66)</f>
+        <f>AVERAGE(H66,N66)</f>
         <v>17</v>
       </c>
-      <c r="P66" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>103409</v>
       </c>
@@ -4895,65 +4868,59 @@
         <v>12</v>
       </c>
       <c r="O67">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H67,N67)</f>
         <v>10.5</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+    </row>
+    <row r="68" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>108105</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
         <v>8314</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="G68" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" s="2">
         <v>9</v>
       </c>
-      <c r="I68" s="4">
-        <v>3</v>
-      </c>
-      <c r="J68" s="4">
-        <v>3</v>
-      </c>
-      <c r="K68" s="4">
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>3</v>
+      </c>
+      <c r="K68" s="2">
         <v>8</v>
       </c>
-      <c r="L68" s="4">
-        <v>3</v>
-      </c>
-      <c r="M68" s="4">
-        <v>2</v>
-      </c>
-      <c r="N68" s="4">
+      <c r="L68" s="2">
+        <v>3</v>
+      </c>
+      <c r="M68" s="2">
+        <v>2</v>
+      </c>
+      <c r="N68" s="2">
         <v>19</v>
       </c>
-      <c r="O68" s="4">
-        <f t="shared" si="1"/>
+      <c r="O68" s="2">
+        <f>AVERAGE(H68,N68)</f>
         <v>14</v>
       </c>
-      <c r="P68" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>107848</v>
       </c>
@@ -4997,14 +4964,11 @@
         <v>15</v>
       </c>
       <c r="O69">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H69,N69)</f>
         <v>15</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>107318</v>
       </c>
@@ -5048,14 +5012,11 @@
         <v>9</v>
       </c>
       <c r="O70">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H70,N70)</f>
         <v>13</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>107611</v>
       </c>
@@ -5099,14 +5060,11 @@
         <v>18</v>
       </c>
       <c r="O71">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H71,N71)</f>
         <v>17.5</v>
       </c>
-      <c r="P71" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>108845</v>
       </c>
@@ -5150,14 +5108,11 @@
         <v>10</v>
       </c>
       <c r="O72">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H72,N72)</f>
         <v>10.5</v>
       </c>
-      <c r="P72" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>108098</v>
       </c>
@@ -5201,14 +5156,11 @@
         <v>16</v>
       </c>
       <c r="O73">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H73,N73)</f>
         <v>15</v>
       </c>
-      <c r="P73" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>108723</v>
       </c>
@@ -5252,14 +5204,11 @@
         <v>14</v>
       </c>
       <c r="O74">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H74,N74)</f>
         <v>14.5</v>
       </c>
-      <c r="P74" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>103757</v>
       </c>
@@ -5303,14 +5252,11 @@
         <v>12</v>
       </c>
       <c r="O75">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H75,N75)</f>
         <v>11</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>107396</v>
       </c>
@@ -5354,14 +5300,11 @@
         <v>10</v>
       </c>
       <c r="O76">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H76,N76)</f>
         <v>9</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>108675</v>
       </c>
@@ -5405,14 +5348,11 @@
         <v>11</v>
       </c>
       <c r="O77">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H77,N77)</f>
         <v>11</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>107584</v>
       </c>
@@ -5456,14 +5396,11 @@
         <v>12</v>
       </c>
       <c r="O78">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H78,N78)</f>
         <v>12.5</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>108329</v>
       </c>
@@ -5507,14 +5444,11 @@
         <v>10</v>
       </c>
       <c r="O79">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H79,N79)</f>
         <v>13.5</v>
       </c>
-      <c r="P79" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>107874</v>
       </c>
@@ -5558,14 +5492,11 @@
         <v>10</v>
       </c>
       <c r="O80">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H80,N80)</f>
         <v>14</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>107517</v>
       </c>
@@ -5609,14 +5540,11 @@
         <v>14</v>
       </c>
       <c r="O81">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H81,N81)</f>
         <v>13</v>
       </c>
-      <c r="P81" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>108513</v>
       </c>
@@ -5660,14 +5588,11 @@
         <v>16</v>
       </c>
       <c r="O82">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H82,N82)</f>
         <v>14</v>
       </c>
-      <c r="P82" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>104342</v>
       </c>
@@ -5711,14 +5636,11 @@
         <v>16</v>
       </c>
       <c r="O83">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H83,N83)</f>
         <v>15</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>108752</v>
       </c>
@@ -5762,14 +5684,11 @@
         <v>16</v>
       </c>
       <c r="O84">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H84,N84)</f>
         <v>14</v>
       </c>
-      <c r="P84" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>103712</v>
       </c>
@@ -5813,14 +5732,11 @@
         <v>14</v>
       </c>
       <c r="O85">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H85,N85)</f>
         <v>13</v>
       </c>
-      <c r="P85" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>108849</v>
       </c>
@@ -5864,65 +5780,59 @@
         <v>10</v>
       </c>
       <c r="O86">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H86,N86)</f>
         <v>10.5</v>
       </c>
-      <c r="P86" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+    </row>
+    <row r="87" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>108868</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="2">
         <v>8314</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="G87" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H87" s="2">
         <v>12</v>
       </c>
-      <c r="I87" s="4">
-        <v>2</v>
-      </c>
-      <c r="J87" s="4">
-        <v>2</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
-      </c>
-      <c r="L87" s="4">
+      <c r="I87" s="2">
+        <v>2</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
         <v>11</v>
       </c>
-      <c r="M87" s="4">
-        <v>1</v>
-      </c>
-      <c r="N87" s="4">
+      <c r="M87" s="2">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2">
         <v>17</v>
       </c>
-      <c r="O87" s="4">
-        <f t="shared" si="1"/>
+      <c r="O87" s="2">
+        <f>AVERAGE(H87,N87)</f>
         <v>14.5</v>
       </c>
-      <c r="P87" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>102380</v>
       </c>
@@ -5966,14 +5876,11 @@
         <v>9</v>
       </c>
       <c r="O88">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H88,N88)</f>
         <v>10.5</v>
       </c>
-      <c r="P88" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>107265</v>
       </c>
@@ -6017,14 +5924,11 @@
         <v>19</v>
       </c>
       <c r="O89">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H89,N89)</f>
         <v>17.5</v>
       </c>
-      <c r="P89" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>108280</v>
       </c>
@@ -6068,65 +5972,59 @@
         <v>10</v>
       </c>
       <c r="O90">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H90,N90)</f>
         <v>11</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+    </row>
+    <row r="91" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>97610</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="2">
         <v>8307</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="G91" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H91" s="2">
         <v>11</v>
       </c>
-      <c r="I91" s="4">
-        <v>3</v>
-      </c>
-      <c r="J91" s="4">
-        <v>1</v>
-      </c>
-      <c r="K91" s="4">
+      <c r="I91" s="2">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
         <v>8</v>
       </c>
-      <c r="L91" s="4">
-        <v>2</v>
-      </c>
-      <c r="M91" s="4">
-        <v>2</v>
-      </c>
-      <c r="N91" s="4">
+      <c r="L91" s="2">
+        <v>2</v>
+      </c>
+      <c r="M91" s="2">
+        <v>2</v>
+      </c>
+      <c r="N91" s="2">
         <v>16</v>
       </c>
-      <c r="O91" s="4">
-        <f t="shared" si="1"/>
+      <c r="O91" s="2">
+        <f>AVERAGE(H91,N91)</f>
         <v>13.5</v>
       </c>
-      <c r="P91" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>93316</v>
       </c>
@@ -6170,14 +6068,11 @@
         <v>17</v>
       </c>
       <c r="O92">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H92,N92)</f>
         <v>17.5</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>110331</v>
       </c>
@@ -6221,14 +6116,11 @@
         <v>18</v>
       </c>
       <c r="O93">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H93,N93)</f>
         <v>16.5</v>
       </c>
-      <c r="P93" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>104807</v>
       </c>
@@ -6272,14 +6164,11 @@
         <v>14</v>
       </c>
       <c r="O94">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H94,N94)</f>
         <v>13.5</v>
       </c>
-      <c r="P94" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>108679</v>
       </c>
@@ -6323,65 +6212,59 @@
         <v>14</v>
       </c>
       <c r="O95">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H95,N95)</f>
         <v>13.5</v>
       </c>
-      <c r="P95" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+    </row>
+    <row r="96" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>103028</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
         <v>8240</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H96" s="4">
+      <c r="G96" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H96" s="2">
         <v>8</v>
       </c>
-      <c r="I96" s="4">
-        <v>3</v>
-      </c>
-      <c r="J96" s="4">
-        <v>2</v>
-      </c>
-      <c r="K96" s="4">
-        <v>2</v>
-      </c>
-      <c r="L96" s="4">
-        <v>1</v>
-      </c>
-      <c r="M96" s="4">
+      <c r="I96" s="2">
+        <v>3</v>
+      </c>
+      <c r="J96" s="2">
+        <v>2</v>
+      </c>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2">
         <v>4</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N96" s="2">
         <v>12</v>
       </c>
-      <c r="O96" s="4">
-        <f t="shared" si="1"/>
+      <c r="O96" s="2">
+        <f>AVERAGE(H96,N96)</f>
         <v>10</v>
       </c>
-      <c r="P96" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>105114</v>
       </c>
@@ -6425,65 +6308,59 @@
         <v>8</v>
       </c>
       <c r="O97">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H97,N97)</f>
         <v>8.5</v>
       </c>
-      <c r="P97" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+    </row>
+    <row r="98" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>108800</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="2">
         <v>8305</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H98" s="4">
+      <c r="G98" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H98" s="2">
         <v>13</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="2">
         <v>5</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="2">
         <v>5</v>
       </c>
-      <c r="K98" s="4">
-        <v>1</v>
-      </c>
-      <c r="L98" s="4">
-        <v>1</v>
-      </c>
-      <c r="M98" s="4">
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
         <v>7</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="2">
         <v>19</v>
       </c>
-      <c r="O98" s="4">
-        <f t="shared" ref="O98:O129" si="2">AVERAGE(H98,N98)</f>
+      <c r="O98" s="2">
+        <f>AVERAGE(H98,N98)</f>
         <v>16</v>
       </c>
-      <c r="P98" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>108050</v>
       </c>
@@ -6527,14 +6404,11 @@
         <v>9</v>
       </c>
       <c r="O99">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H99,N99)</f>
         <v>13</v>
       </c>
-      <c r="P99" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>105491</v>
       </c>
@@ -6578,65 +6452,59 @@
         <v>9</v>
       </c>
       <c r="O100">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H100,N100)</f>
         <v>10</v>
       </c>
-      <c r="P100" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+    </row>
+    <row r="101" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>102976</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="2">
         <v>8220</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H101" s="4">
+      <c r="G101" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" s="2">
         <v>8</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="2">
         <v>8</v>
       </c>
-      <c r="J101" s="4">
-        <v>2</v>
-      </c>
-      <c r="K101" s="4">
-        <v>2</v>
-      </c>
-      <c r="L101" s="4">
-        <v>2</v>
-      </c>
-      <c r="M101" s="4">
-        <v>1</v>
-      </c>
-      <c r="N101" s="4">
+      <c r="J101" s="2">
+        <v>2</v>
+      </c>
+      <c r="K101" s="2">
+        <v>2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>2</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1</v>
+      </c>
+      <c r="N101" s="2">
         <v>15</v>
       </c>
-      <c r="O101" s="4">
-        <f t="shared" si="2"/>
+      <c r="O101" s="2">
+        <f>AVERAGE(H101,N101)</f>
         <v>11.5</v>
       </c>
-      <c r="P101" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>108826</v>
       </c>
@@ -6680,116 +6548,107 @@
         <v>8</v>
       </c>
       <c r="O102">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H102,N102)</f>
         <v>10.5</v>
       </c>
-      <c r="P102" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
+    </row>
+    <row r="103" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>108436</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="2">
         <v>8220</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H103" s="4">
+      <c r="G103" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103" s="2">
         <v>8</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="2">
         <v>6</v>
       </c>
-      <c r="J103" s="4">
-        <v>1</v>
-      </c>
-      <c r="K103" s="4">
-        <v>3</v>
-      </c>
-      <c r="L103" s="4">
-        <v>1</v>
-      </c>
-      <c r="M103" s="4">
-        <v>1</v>
-      </c>
-      <c r="N103" s="4">
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>3</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2">
         <v>12</v>
       </c>
-      <c r="O103" s="4">
-        <f t="shared" si="2"/>
+      <c r="O103" s="2">
+        <f>AVERAGE(H103,N103)</f>
         <v>10</v>
       </c>
-      <c r="P103" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
+    </row>
+    <row r="104" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>107233</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="2">
         <v>8220</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H104" s="4">
+      <c r="G104" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H104" s="2">
         <v>9</v>
       </c>
-      <c r="I104" s="4">
-        <v>1</v>
-      </c>
-      <c r="J104" s="4">
-        <v>3</v>
-      </c>
-      <c r="K104" s="4">
-        <v>1</v>
-      </c>
-      <c r="L104" s="4">
-        <v>2</v>
-      </c>
-      <c r="M104" s="4">
+      <c r="I104" s="2">
+        <v>1</v>
+      </c>
+      <c r="J104" s="2">
+        <v>3</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1</v>
+      </c>
+      <c r="L104" s="2">
+        <v>2</v>
+      </c>
+      <c r="M104" s="2">
         <v>8</v>
       </c>
-      <c r="N104" s="4">
+      <c r="N104" s="2">
         <v>15</v>
       </c>
-      <c r="O104" s="4">
-        <f t="shared" si="2"/>
+      <c r="O104" s="2">
+        <f>AVERAGE(H104,N104)</f>
         <v>12</v>
       </c>
-      <c r="P104" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103167</v>
       </c>
@@ -6833,14 +6692,11 @@
         <v>11</v>
       </c>
       <c r="O105">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H105,N105)</f>
         <v>10.5</v>
       </c>
-      <c r="P105" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>108760</v>
       </c>
@@ -6884,65 +6740,59 @@
         <v>7</v>
       </c>
       <c r="O106">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H106,N106)</f>
         <v>9.5</v>
       </c>
-      <c r="P106" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
+    </row>
+    <row r="107" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>103326</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="2">
         <v>8220</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H107" s="4">
+      <c r="G107" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H107" s="2">
         <v>10</v>
       </c>
-      <c r="I107" s="4">
-        <v>3</v>
-      </c>
-      <c r="J107" s="4">
-        <v>2</v>
-      </c>
-      <c r="K107" s="4">
-        <v>3</v>
-      </c>
-      <c r="L107" s="4">
+      <c r="I107" s="2">
+        <v>3</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2</v>
+      </c>
+      <c r="K107" s="2">
+        <v>3</v>
+      </c>
+      <c r="L107" s="2">
         <v>8</v>
       </c>
-      <c r="M107" s="4">
-        <v>2</v>
-      </c>
-      <c r="N107" s="4">
+      <c r="M107" s="2">
+        <v>2</v>
+      </c>
+      <c r="N107" s="2">
         <v>18</v>
       </c>
-      <c r="O107" s="4">
-        <f t="shared" si="2"/>
+      <c r="O107" s="2">
+        <f>AVERAGE(H107,N107)</f>
         <v>14</v>
       </c>
-      <c r="P107" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>109152</v>
       </c>
@@ -6986,14 +6836,11 @@
         <v>9</v>
       </c>
       <c r="O108">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H108,N108)</f>
         <v>8.5</v>
       </c>
-      <c r="P108" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107895</v>
       </c>
@@ -7037,14 +6884,11 @@
         <v>12</v>
       </c>
       <c r="O109">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H109,N109)</f>
         <v>11.5</v>
       </c>
-      <c r="P109" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107267</v>
       </c>
@@ -7088,14 +6932,11 @@
         <v>12</v>
       </c>
       <c r="O110">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H110,N110)</f>
         <v>11</v>
       </c>
-      <c r="P110" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>103309</v>
       </c>
@@ -7139,65 +6980,59 @@
         <v>7</v>
       </c>
       <c r="O111">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H111,N111)</f>
         <v>12.5</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
+    </row>
+    <row r="112" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>99440</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="2">
         <v>8220</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H112" s="4">
+      <c r="G112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" s="2">
         <v>8</v>
       </c>
-      <c r="I112" s="4">
-        <v>1</v>
-      </c>
-      <c r="J112" s="4">
-        <v>2</v>
-      </c>
-      <c r="K112" s="4">
-        <v>1</v>
-      </c>
-      <c r="L112" s="4">
-        <v>1</v>
-      </c>
-      <c r="M112" s="4">
+      <c r="I112" s="2">
+        <v>1</v>
+      </c>
+      <c r="J112" s="2">
+        <v>2</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2">
         <v>10</v>
       </c>
-      <c r="N112" s="4">
+      <c r="N112" s="2">
         <v>15</v>
       </c>
-      <c r="O112" s="4">
-        <f t="shared" si="2"/>
+      <c r="O112" s="2">
+        <f>AVERAGE(H112,N112)</f>
         <v>11.5</v>
       </c>
-      <c r="P112" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>93274</v>
       </c>
@@ -7241,14 +7076,11 @@
         <v>8</v>
       </c>
       <c r="O113">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H113,N113)</f>
         <v>11.5</v>
       </c>
-      <c r="P113" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>102859</v>
       </c>
@@ -7292,14 +7124,11 @@
         <v>8</v>
       </c>
       <c r="O114">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H114,N114)</f>
         <v>10.5</v>
       </c>
-      <c r="P114" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>104088</v>
       </c>
@@ -7343,14 +7172,11 @@
         <v>7</v>
       </c>
       <c r="O115">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H115,N115)</f>
         <v>12</v>
       </c>
-      <c r="P115" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>102633</v>
       </c>
@@ -7394,14 +7220,11 @@
         <v>10</v>
       </c>
       <c r="O116">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H116,N116)</f>
         <v>9</v>
       </c>
-      <c r="P116" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>108159</v>
       </c>
@@ -7445,65 +7268,59 @@
         <v>15</v>
       </c>
       <c r="O117">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H117,N117)</f>
         <v>16.5</v>
       </c>
-      <c r="P117" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
+    </row>
+    <row r="118" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>108461</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="2">
         <v>8220</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="G118" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H118" s="2">
         <v>10</v>
       </c>
-      <c r="I118" s="4">
-        <v>3</v>
-      </c>
-      <c r="J118" s="4">
+      <c r="I118" s="2">
+        <v>3</v>
+      </c>
+      <c r="J118" s="2">
         <v>7</v>
       </c>
-      <c r="K118" s="4">
-        <v>1</v>
-      </c>
-      <c r="L118" s="4">
-        <v>1</v>
-      </c>
-      <c r="M118" s="4">
+      <c r="K118" s="2">
+        <v>1</v>
+      </c>
+      <c r="L118" s="2">
+        <v>1</v>
+      </c>
+      <c r="M118" s="2">
         <v>6</v>
       </c>
-      <c r="N118" s="4">
+      <c r="N118" s="2">
         <v>18</v>
       </c>
-      <c r="O118" s="4">
-        <f t="shared" si="2"/>
+      <c r="O118" s="2">
+        <f>AVERAGE(H118,N118)</f>
         <v>14</v>
       </c>
-      <c r="P118" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>107635</v>
       </c>
@@ -7547,14 +7364,11 @@
         <v>15</v>
       </c>
       <c r="O119">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H119,N119)</f>
         <v>16.5</v>
       </c>
-      <c r="P119" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>102716</v>
       </c>
@@ -7598,14 +7412,11 @@
         <v>11</v>
       </c>
       <c r="O120">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H120,N120)</f>
         <v>13</v>
       </c>
-      <c r="P120" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>107347</v>
       </c>
@@ -7649,14 +7460,11 @@
         <v>11</v>
       </c>
       <c r="O121">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H121,N121)</f>
         <v>10.5</v>
       </c>
-      <c r="P121" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>110409</v>
       </c>
@@ -7700,65 +7508,59 @@
         <v>7</v>
       </c>
       <c r="O122">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H122,N122)</f>
         <v>12</v>
       </c>
-      <c r="P122" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
+    </row>
+    <row r="123" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>108540</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="2">
         <v>8220</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H123" s="4">
+      <c r="G123" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H123" s="2">
         <v>10</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="2">
         <v>6</v>
       </c>
-      <c r="J123" s="4">
-        <v>2</v>
-      </c>
-      <c r="K123" s="4">
-        <v>2</v>
-      </c>
-      <c r="L123" s="4">
-        <v>2</v>
-      </c>
-      <c r="M123" s="4">
+      <c r="J123" s="2">
+        <v>2</v>
+      </c>
+      <c r="K123" s="2">
+        <v>2</v>
+      </c>
+      <c r="L123" s="2">
+        <v>2</v>
+      </c>
+      <c r="M123" s="2">
         <v>4</v>
       </c>
-      <c r="N123" s="4">
+      <c r="N123" s="2">
         <v>16</v>
       </c>
-      <c r="O123" s="4">
-        <f t="shared" si="2"/>
+      <c r="O123" s="2">
+        <f>AVERAGE(H123,N123)</f>
         <v>13</v>
       </c>
-      <c r="P123" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>103112</v>
       </c>
@@ -7802,14 +7604,11 @@
         <v>10</v>
       </c>
       <c r="O124">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H124,N124)</f>
         <v>10.5</v>
       </c>
-      <c r="P124" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>111224</v>
       </c>
@@ -7853,65 +7652,59 @@
         <v>14</v>
       </c>
       <c r="O125">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H125,N125)</f>
         <v>12.5</v>
       </c>
-      <c r="P125" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
+    </row>
+    <row r="126" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>102150</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="2">
         <v>8220</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H126" s="4">
+      <c r="G126" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H126" s="2">
         <v>10</v>
       </c>
-      <c r="I126" s="4">
-        <v>1</v>
-      </c>
-      <c r="J126" s="4">
-        <v>2</v>
-      </c>
-      <c r="K126" s="4">
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>2</v>
+      </c>
+      <c r="K126" s="2">
         <v>6</v>
       </c>
-      <c r="L126" s="4">
-        <v>3</v>
-      </c>
-      <c r="M126" s="4">
+      <c r="L126" s="2">
+        <v>3</v>
+      </c>
+      <c r="M126" s="2">
         <v>7</v>
       </c>
-      <c r="N126" s="4">
+      <c r="N126" s="2">
         <v>19</v>
       </c>
-      <c r="O126" s="4">
-        <f t="shared" si="2"/>
+      <c r="O126" s="2">
+        <f>AVERAGE(H126,N126)</f>
         <v>14.5</v>
       </c>
-      <c r="P126" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>107185</v>
       </c>
@@ -7955,14 +7748,11 @@
         <v>10</v>
       </c>
       <c r="O127">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H127,N127)</f>
         <v>10.5</v>
       </c>
-      <c r="P127" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>104229</v>
       </c>
@@ -8006,14 +7796,11 @@
         <v>9</v>
       </c>
       <c r="O128">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H128,N128)</f>
         <v>10.5</v>
       </c>
-      <c r="P128" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>103235</v>
       </c>
@@ -8057,14 +7844,11 @@
         <v>8</v>
       </c>
       <c r="O129">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H129,N129)</f>
         <v>8.5</v>
       </c>
-      <c r="P129" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>110719</v>
       </c>
@@ -8108,14 +7892,11 @@
         <v>8</v>
       </c>
       <c r="O130">
-        <f t="shared" ref="O130:O161" si="3">AVERAGE(H130,N130)</f>
+        <f>AVERAGE(H130,N130)</f>
         <v>9</v>
       </c>
-      <c r="P130" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>102669</v>
       </c>
@@ -8159,14 +7940,11 @@
         <v>9</v>
       </c>
       <c r="O131">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H131,N131)</f>
         <v>13</v>
       </c>
-      <c r="P131" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>108113</v>
       </c>
@@ -8210,14 +7988,11 @@
         <v>8</v>
       </c>
       <c r="O132">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H132,N132)</f>
         <v>13</v>
       </c>
-      <c r="P132" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>108204</v>
       </c>
@@ -8261,14 +8036,11 @@
         <v>11</v>
       </c>
       <c r="O133">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H133,N133)</f>
         <v>10</v>
       </c>
-      <c r="P133" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>107356</v>
       </c>
@@ -8312,14 +8084,11 @@
         <v>9</v>
       </c>
       <c r="O134">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H134,N134)</f>
         <v>10.5</v>
       </c>
-      <c r="P134" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>102011</v>
       </c>
@@ -8363,14 +8132,11 @@
         <v>12</v>
       </c>
       <c r="O135">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H135,N135)</f>
         <v>15</v>
       </c>
-      <c r="P135" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>104183</v>
       </c>
@@ -8414,14 +8180,11 @@
         <v>12</v>
       </c>
       <c r="O136">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H136,N136)</f>
         <v>13</v>
       </c>
-      <c r="P136" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>108629</v>
       </c>
@@ -8465,65 +8228,59 @@
         <v>19</v>
       </c>
       <c r="O137">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H137,N137)</f>
         <v>17.5</v>
       </c>
-      <c r="P137" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
+    </row>
+    <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>102743</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="2">
         <v>8220</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H138" s="4">
+      <c r="G138" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H138" s="2">
         <v>10</v>
       </c>
-      <c r="I138" s="4">
-        <v>1</v>
-      </c>
-      <c r="J138" s="4">
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2">
         <v>4</v>
       </c>
-      <c r="K138" s="4">
+      <c r="K138" s="2">
         <v>8</v>
       </c>
-      <c r="L138" s="4">
+      <c r="L138" s="2">
         <v>5</v>
       </c>
-      <c r="M138" s="4">
-        <v>1</v>
-      </c>
-      <c r="N138" s="4">
+      <c r="M138" s="2">
+        <v>1</v>
+      </c>
+      <c r="N138" s="2">
         <v>19</v>
       </c>
-      <c r="O138" s="4">
-        <f t="shared" si="3"/>
+      <c r="O138" s="2">
+        <f>AVERAGE(H138,N138)</f>
         <v>14.5</v>
       </c>
-      <c r="P138" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>108654</v>
       </c>
@@ -8567,14 +8324,11 @@
         <v>12</v>
       </c>
       <c r="O139">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H139,N139)</f>
         <v>11.5</v>
       </c>
-      <c r="P139" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>108869</v>
       </c>
@@ -8618,65 +8372,59 @@
         <v>9</v>
       </c>
       <c r="O140">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H140,N140)</f>
         <v>8.5</v>
       </c>
-      <c r="P140" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
+    </row>
+    <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>103761</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="2">
         <v>8220</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H141" s="4">
+      <c r="G141" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H141" s="2">
         <v>8</v>
       </c>
-      <c r="I141" s="4">
-        <v>1</v>
-      </c>
-      <c r="J141" s="4">
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2">
         <v>5</v>
       </c>
-      <c r="K141" s="4">
-        <v>3</v>
-      </c>
-      <c r="L141" s="4">
-        <v>1</v>
-      </c>
-      <c r="M141" s="4">
+      <c r="K141" s="2">
+        <v>3</v>
+      </c>
+      <c r="L141" s="2">
+        <v>1</v>
+      </c>
+      <c r="M141" s="2">
         <v>8</v>
       </c>
-      <c r="N141" s="4">
+      <c r="N141" s="2">
         <v>18</v>
       </c>
-      <c r="O141" s="4">
-        <f t="shared" si="3"/>
+      <c r="O141" s="2">
+        <f>AVERAGE(H141,N141)</f>
         <v>13</v>
       </c>
-      <c r="P141" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>107208</v>
       </c>
@@ -8720,65 +8468,59 @@
         <v>12</v>
       </c>
       <c r="O142">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H142,N142)</f>
         <v>13</v>
       </c>
-      <c r="P142" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
+    </row>
+    <row r="143" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>103314</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="2">
         <v>8220</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H143" s="4">
+      <c r="G143" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H143" s="2">
         <v>8</v>
       </c>
-      <c r="I143" s="4">
-        <v>1</v>
-      </c>
-      <c r="J143" s="4">
-        <v>3</v>
-      </c>
-      <c r="K143" s="4">
-        <v>3</v>
-      </c>
-      <c r="L143" s="4">
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2">
+        <v>3</v>
+      </c>
+      <c r="K143" s="2">
+        <v>3</v>
+      </c>
+      <c r="L143" s="2">
         <v>4</v>
       </c>
-      <c r="M143" s="4">
-        <v>3</v>
-      </c>
-      <c r="N143" s="4">
+      <c r="M143" s="2">
+        <v>3</v>
+      </c>
+      <c r="N143" s="2">
         <v>14</v>
       </c>
-      <c r="O143" s="4">
-        <f t="shared" si="3"/>
+      <c r="O143" s="2">
+        <f>AVERAGE(H143,N143)</f>
         <v>11</v>
       </c>
-      <c r="P143" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>109150</v>
       </c>
@@ -8822,65 +8564,59 @@
         <v>14</v>
       </c>
       <c r="O144">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H144,N144)</f>
         <v>14</v>
       </c>
-      <c r="P144" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
+    </row>
+    <row r="145" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>105431</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="2">
         <v>8220</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H145" s="4">
+      <c r="G145" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H145" s="2">
         <v>11</v>
       </c>
-      <c r="I145" s="4">
-        <v>1</v>
-      </c>
-      <c r="J145" s="4">
-        <v>2</v>
-      </c>
-      <c r="K145" s="4">
-        <v>2</v>
-      </c>
-      <c r="L145" s="4">
+      <c r="I145" s="2">
+        <v>1</v>
+      </c>
+      <c r="J145" s="2">
+        <v>2</v>
+      </c>
+      <c r="K145" s="2">
+        <v>2</v>
+      </c>
+      <c r="L145" s="2">
         <v>7</v>
       </c>
-      <c r="M145" s="4">
+      <c r="M145" s="2">
         <v>6</v>
       </c>
-      <c r="N145" s="4">
+      <c r="N145" s="2">
         <v>18</v>
       </c>
-      <c r="O145" s="4">
-        <f t="shared" si="3"/>
+      <c r="O145" s="2">
+        <f>AVERAGE(H145,N145)</f>
         <v>14.5</v>
       </c>
-      <c r="P145" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>103768</v>
       </c>
@@ -8924,14 +8660,11 @@
         <v>13</v>
       </c>
       <c r="O146">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H146,N146)</f>
         <v>15.5</v>
       </c>
-      <c r="P146" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>98007</v>
       </c>
@@ -8975,14 +8708,11 @@
         <v>8</v>
       </c>
       <c r="O147">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H147,N147)</f>
         <v>9.5</v>
       </c>
-      <c r="P147" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>107594</v>
       </c>
@@ -9026,14 +8756,11 @@
         <v>13</v>
       </c>
       <c r="O148">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H148,N148)</f>
         <v>14.5</v>
       </c>
-      <c r="P148" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>107319</v>
       </c>
@@ -9077,14 +8804,11 @@
         <v>14</v>
       </c>
       <c r="O149">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H149,N149)</f>
         <v>15</v>
       </c>
-      <c r="P149" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>99397</v>
       </c>
@@ -9128,116 +8852,107 @@
         <v>9</v>
       </c>
       <c r="O150">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H150,N150)</f>
         <v>12.5</v>
       </c>
-      <c r="P150" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    </row>
+    <row r="151" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>105127</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="2">
         <v>8258</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H151" s="4">
+      <c r="G151" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H151" s="2">
         <v>10</v>
       </c>
-      <c r="I151" s="4">
-        <v>2</v>
-      </c>
-      <c r="J151" s="4">
-        <v>3</v>
-      </c>
-      <c r="K151" s="4">
+      <c r="I151" s="2">
+        <v>2</v>
+      </c>
+      <c r="J151" s="2">
+        <v>3</v>
+      </c>
+      <c r="K151" s="2">
         <v>5</v>
       </c>
-      <c r="L151" s="4">
-        <v>3</v>
-      </c>
-      <c r="M151" s="4">
+      <c r="L151" s="2">
+        <v>3</v>
+      </c>
+      <c r="M151" s="2">
         <v>6</v>
       </c>
-      <c r="N151" s="4">
+      <c r="N151" s="2">
         <v>19</v>
       </c>
-      <c r="O151" s="4">
-        <f t="shared" si="3"/>
+      <c r="O151" s="2">
+        <f>AVERAGE(H151,N151)</f>
         <v>14.5</v>
       </c>
-      <c r="P151" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    </row>
+    <row r="152" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
         <v>105083</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="2">
         <v>8220</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H152" s="4">
+      <c r="G152" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H152" s="2">
         <v>11</v>
       </c>
-      <c r="I152" s="4">
+      <c r="I152" s="2">
         <v>4</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152" s="2">
         <v>4</v>
       </c>
-      <c r="K152" s="4">
-        <v>2</v>
-      </c>
-      <c r="L152" s="4">
-        <v>1</v>
-      </c>
-      <c r="M152" s="4">
+      <c r="K152" s="2">
+        <v>2</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1</v>
+      </c>
+      <c r="M152" s="2">
         <v>7</v>
       </c>
-      <c r="N152" s="4">
+      <c r="N152" s="2">
         <v>18</v>
       </c>
-      <c r="O152" s="4">
-        <f t="shared" si="3"/>
+      <c r="O152" s="2">
+        <f>AVERAGE(H152,N152)</f>
         <v>14.5</v>
       </c>
-      <c r="P152" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>109162</v>
       </c>
@@ -9281,14 +8996,11 @@
         <v>10</v>
       </c>
       <c r="O153">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H153,N153)</f>
         <v>10</v>
       </c>
-      <c r="P153" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>108225</v>
       </c>
@@ -9332,14 +9044,11 @@
         <v>8</v>
       </c>
       <c r="O154">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H154,N154)</f>
         <v>8</v>
       </c>
-      <c r="P154" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105880</v>
       </c>
@@ -9383,14 +9092,11 @@
         <v>16</v>
       </c>
       <c r="O155">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H155,N155)</f>
         <v>16</v>
       </c>
-      <c r="P155" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>108078</v>
       </c>
@@ -9434,65 +9140,59 @@
         <v>12</v>
       </c>
       <c r="O156">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H156,N156)</f>
         <v>14</v>
       </c>
-      <c r="P156" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    </row>
+    <row r="157" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
         <v>108146</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="2">
         <v>8220</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G157" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H157" s="4">
+      <c r="G157" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H157" s="2">
         <v>11</v>
       </c>
-      <c r="I157" s="4">
-        <v>2</v>
-      </c>
-      <c r="J157" s="4">
-        <v>3</v>
-      </c>
-      <c r="K157" s="4">
+      <c r="I157" s="2">
+        <v>2</v>
+      </c>
+      <c r="J157" s="2">
+        <v>3</v>
+      </c>
+      <c r="K157" s="2">
         <v>7</v>
       </c>
-      <c r="L157" s="4">
-        <v>1</v>
-      </c>
-      <c r="M157" s="4">
-        <v>3</v>
-      </c>
-      <c r="N157" s="4">
+      <c r="L157" s="2">
+        <v>1</v>
+      </c>
+      <c r="M157" s="2">
+        <v>3</v>
+      </c>
+      <c r="N157" s="2">
         <v>16</v>
       </c>
-      <c r="O157" s="4">
-        <f t="shared" si="3"/>
+      <c r="O157" s="2">
+        <f>AVERAGE(H157,N157)</f>
         <v>13.5</v>
       </c>
-      <c r="P157" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>102437</v>
       </c>
@@ -9536,14 +9236,11 @@
         <v>16</v>
       </c>
       <c r="O158">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H158,N158)</f>
         <v>16</v>
       </c>
-      <c r="P158" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>97876</v>
       </c>
@@ -9587,14 +9284,11 @@
         <v>9</v>
       </c>
       <c r="O159">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H159,N159)</f>
         <v>13.5</v>
       </c>
-      <c r="P159" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>103910</v>
       </c>
@@ -9638,14 +9332,12 @@
         <v>7</v>
       </c>
       <c r="O160">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H160,N160)</f>
         <v>8.5</v>
-      </c>
-      <c r="P160" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>